--- a/data/trans_orig/P14C11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00694DA9-2138-4C7E-B6A0-9F0079CDD122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62FEBB88-0CD6-4825-97D6-D3CCFFA1C02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8AE93982-6B7B-4A68-8BFF-54E01BCD00F7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{076C1CD7-9BF2-488A-B828-345E159F07F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18660731-8C0A-46A5-8194-2E62F6F88A0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B07C44-D0D4-4AC4-BE72-FC6E00C45CE4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C11-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62FEBB88-0CD6-4825-97D6-D3CCFFA1C02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{263FB0ED-C762-429C-AF6C-690E8BEE2D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{076C1CD7-9BF2-488A-B828-345E159F07F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{510521D5-0CE1-4210-B6E6-3B25BF2E0576}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="136">
   <si>
-    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 1,57%)</t>
+    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2016 (Tasa respuesta: 1,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -98,124 +98,124 @@
     <t>Ultimos 12 meses</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>81,29%</t>
   </si>
   <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>81,62%</t>
   </si>
   <si>
-    <t>43,52%</t>
+    <t>50,68%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>36,33%</t>
+    <t>38,69%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>39,0%</t>
+    <t>37,65%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>26,79%</t>
+    <t>27,11%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>40,28%</t>
+    <t>40,01%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>79,97%</t>
   </si>
   <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>37,92%</t>
+    <t>37,0%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -224,22 +224,22 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>32,24%</t>
+    <t>31,84%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>53,41%</t>
+    <t>48,14%</t>
   </si>
   <si>
     <t>84,89%</t>
@@ -251,16 +251,16 @@
     <t>83,5%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>33,95%</t>
+    <t>33,3%</t>
   </si>
   <si>
     <t>15,11%</t>
@@ -272,13 +272,13 @@
     <t>10,5%</t>
   </si>
   <si>
-    <t>34,46%</t>
+    <t>31,96%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>54,17%</t>
+    <t>40,89%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -287,7 +287,7 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>25,02%</t>
+    <t>25,61%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -296,10 +296,10 @@
     <t>63,26%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>72,07%</t>
@@ -311,136 +311,136 @@
     <t>65,58%</t>
   </si>
   <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>61,75%</t>
+    <t>66,79%</t>
   </si>
   <si>
     <t>24,7%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>27,35%</t>
+    <t>32,66%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>51,76%</t>
+    <t>38,64%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B07C44-D0D4-4AC4-BE72-FC6E00C45CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8957B0-CF90-42BA-8A1E-98B77F1912F5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
